--- a/API/testdata.xlsx
+++ b/API/testdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>City</t>
   </si>
@@ -27,34 +27,34 @@
     <t>Pune</t>
   </si>
   <si>
-    <t>Itarsi</t>
-  </si>
-  <si>
-    <t>Bengaluru</t>
+    <t>Status Code</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t>Colombo</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Brisbane</t>
+  </si>
+  <si>
+    <t>Perth</t>
   </si>
   <si>
     <t>Delhi</t>
-  </si>
-  <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Dublin</t>
-  </si>
-  <si>
-    <t>Beijing</t>
-  </si>
-  <si>
-    <t>Status Code</t>
-  </si>
-  <si>
-    <t>Response</t>
   </si>
   <si>
     <t xml:space="preserve">{
@@ -186,55 +186,50 @@
       {
          "address_components" : [
             {
-               "long_name" : "Itarsi",
-               "short_name" : "Itarsi",
+               "long_name" : "New York",
+               "short_name" : "New York",
                "types" : [ "locality", "political" ]
             },
             {
-               "long_name" : "Hoshangabad",
-               "short_name" : "Hoshangabad",
-               "types" : [ "administrative_area_level_2", "political" ]
-            },
-            {
-               "long_name" : "Madhya Pradesh",
-               "short_name" : "MP",
+               "long_name" : "New York",
+               "short_name" : "NY",
                "types" : [ "administrative_area_level_1", "political" ]
             },
             {
-               "long_name" : "India",
-               "short_name" : "IN",
+               "long_name" : "United States",
+               "short_name" : "US",
                "types" : [ "country", "political" ]
             }
          ],
-         "formatted_address" : "Itarsi, Madhya Pradesh, India",
+         "formatted_address" : "New York, NY, USA",
          "geometry" : {
             "bounds" : {
                "northeast" : {
-                  "lat" : 22.638841,
-                  "lng" : 77.7898979
-               },
-               "southwest" : {
-                  "lat" : 22.5863331,
-                  "lng" : 77.7187979
+                  "lat" : 40.9175771,
+                  "lng" : -73.70027209999999
+               },
+               "southwest" : {
+                  "lat" : 40.4773991,
+                  "lng" : -74.25908989999999
                }
             },
             "location" : {
-               "lat" : 22.6114536,
-               "lng" : 77.76233209999999
+               "lat" : 40.7127753,
+               "lng" : -74.0059728
             },
             "location_type" : "APPROXIMATE",
             "viewport" : {
                "northeast" : {
-                  "lat" : 22.638841,
-                  "lng" : 77.7898979
-               },
-               "southwest" : {
-                  "lat" : 22.5863331,
-                  "lng" : 77.7187979
+                  "lat" : 40.9175771,
+                  "lng" : -73.70027209999999
+               },
+               "southwest" : {
+                  "lat" : 40.4773991,
+                  "lng" : -74.25908989999999
                }
             }
          },
-         "place_id" : "ChIJY9_yqpncfTkR4cAmleeQTzQ",
+         "place_id" : "ChIJOwg_06VPwokRYv534QaPC8g",
          "types" : [ "locality", "political" ]
       }
    ],
@@ -248,55 +243,60 @@
       {
          "address_components" : [
             {
-               "long_name" : "Bengaluru",
-               "short_name" : "Bengaluru",
+               "long_name" : "London",
+               "short_name" : "London",
                "types" : [ "locality", "political" ]
             },
             {
-               "long_name" : "Bangalore Urban",
-               "short_name" : "Bangalore Urban",
+               "long_name" : "London",
+               "short_name" : "London",
+               "types" : [ "postal_town" ]
+            },
+            {
+               "long_name" : "Greater London",
+               "short_name" : "Greater London",
                "types" : [ "administrative_area_level_2", "political" ]
             },
             {
-               "long_name" : "Karnataka",
-               "short_name" : "KA",
+               "long_name" : "England",
+               "short_name" : "England",
                "types" : [ "administrative_area_level_1", "political" ]
             },
             {
-               "long_name" : "India",
-               "short_name" : "IN",
+               "long_name" : "United Kingdom",
+               "short_name" : "GB",
                "types" : [ "country", "political" ]
             }
          ],
-         "formatted_address" : "Bengaluru, Karnataka, India",
+         "formatted_address" : "London, UK",
          "geometry" : {
             "bounds" : {
                "northeast" : {
-                  "lat" : 13.173706,
-                  "lng" : 77.8826809
-               },
-               "southwest" : {
-                  "lat" : 12.7342888,
-                  "lng" : 77.3791981
+                  "lat" : 51.6723432,
+                  "lng" : 0.148271
+               },
+               "southwest" : {
+                  "lat" : 51.38494009999999,
+                  "lng" : -0.3514683
                }
             },
             "location" : {
-               "lat" : 12.9715987,
-               "lng" : 77.5945627
+               "lat" : 51.5073509,
+               "lng" : -0.1277583
             },
             "location_type" : "APPROXIMATE",
             "viewport" : {
                "northeast" : {
-                  "lat" : 13.173706,
-                  "lng" : 77.8826809
-               },
-               "southwest" : {
-                  "lat" : 12.7342888,
-                  "lng" : 77.3791981
+                  "lat" : 51.6723432,
+                  "lng" : 0.148271
+               },
+               "southwest" : {
+                  "lat" : 51.38494009999999,
+                  "lng" : -0.3514683
                }
             }
          },
-         "place_id" : "ChIJbU60yXAWrjsR4E9-UejD3_g",
+         "place_id" : "ChIJdd4hrwug2EcRmSrV3Vo6llI",
          "types" : [ "locality", "political" ]
       }
    ],
@@ -310,46 +310,113 @@
       {
          "address_components" : [
             {
-               "long_name" : "Delhi",
-               "short_name" : "DL",
-               "types" : [ "administrative_area_level_1", "locality", "political" ]
-            },
-            {
-               "long_name" : "India",
-               "short_name" : "IN",
+               "long_name" : "Dublin",
+               "short_name" : "Dublin",
+               "types" : [ "locality", "political" ]
+            },
+            {
+               "long_name" : "County Dublin",
+               "short_name" : "County Dublin",
+               "types" : [ "administrative_area_level_1", "political" ]
+            },
+            {
+               "long_name" : "Ireland",
+               "short_name" : "IE",
                "types" : [ "country", "political" ]
             }
          ],
-         "formatted_address" : "Delhi, India",
+         "formatted_address" : "Dublin, Ireland",
          "geometry" : {
             "bounds" : {
                "northeast" : {
-                  "lat" : 28.881338,
-                  "lng" : 77.34845780000001
-               },
-               "southwest" : {
-                  "lat" : 28.412593,
-                  "lng" : 76.83806899999999
+                  "lat" : 53.42521010000001,
+                  "lng" : -6.0439235
+               },
+               "southwest" : {
+                  "lat" : 53.22343009999999,
+                  "lng" : -6.4474847
                }
             },
             "location" : {
-               "lat" : 28.7040592,
-               "lng" : 77.10249019999999
+               "lat" : 53.3498053,
+               "lng" : -6.2603097
             },
             "location_type" : "APPROXIMATE",
             "viewport" : {
                "northeast" : {
-                  "lat" : 28.881338,
-                  "lng" : 77.34845780000001
-               },
-               "southwest" : {
-                  "lat" : 28.412593,
-                  "lng" : 76.83806899999999
+                  "lat" : 53.42521010000001,
+                  "lng" : -6.0439235
+               },
+               "southwest" : {
+                  "lat" : 53.22343009999999,
+                  "lng" : -6.4474847
                }
             }
          },
-         "place_id" : "ChIJLbZ-NFv9DDkRQJY4FbcFcgM",
-         "types" : [ "administrative_area_level_1", "locality", "political" ]
+         "place_id" : "ChIJL6wn6oAOZ0gRoHExl6nHAAo",
+         "types" : [ "locality", "political" ]
+      }
+   ],
+   "status" : "OK"
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+   "results" : [
+      {
+         "address_components" : [
+            {
+               "long_name" : "Colombo",
+               "short_name" : "Colombo",
+               "types" : [ "locality", "political" ]
+            },
+            {
+               "long_name" : "Colombo",
+               "short_name" : "Colombo",
+               "types" : [ "administrative_area_level_2", "political" ]
+            },
+            {
+               "long_name" : "Western Province",
+               "short_name" : "WP",
+               "types" : [ "administrative_area_level_1", "political" ]
+            },
+            {
+               "long_name" : "Sri Lanka",
+               "short_name" : "LK",
+               "types" : [ "country", "political" ]
+            }
+         ],
+         "formatted_address" : "Colombo, Sri Lanka",
+         "geometry" : {
+            "bounds" : {
+               "northeast" : {
+                  "lat" : 6.9812866,
+                  "lng" : 79.8900852
+               },
+               "southwest" : {
+                  "lat" : 6.862390700000001,
+                  "lng" : 79.8223258
+               }
+            },
+            "location" : {
+               "lat" : 6.9270786,
+               "lng" : 79.861243
+            },
+            "location_type" : "APPROXIMATE",
+            "viewport" : {
+               "northeast" : {
+                  "lat" : 6.9812866,
+                  "lng" : 79.8900852
+               },
+               "southwest" : {
+                  "lat" : 6.862390700000001,
+                  "lng" : 79.8223258
+               }
+            }
+         },
+         "place_id" : "ChIJA3B6D9FT4joRjYPTMk0uCzI",
+         "types" : [ "locality", "political" ]
       }
    ],
    "status" : "OK"
@@ -424,51 +491,51 @@
       {
          "address_components" : [
             {
-               "long_name" : "New York",
-               "short_name" : "New York",
-               "types" : [ "locality", "political" ]
-            },
-            {
-               "long_name" : "New York",
-               "short_name" : "NY",
+               "long_name" : "Brisbane",
+               "short_name" : "Brisbane",
+               "types" : [ "colloquial_area", "locality", "political" ]
+            },
+            {
+               "long_name" : "Queensland",
+               "short_name" : "QLD",
                "types" : [ "administrative_area_level_1", "political" ]
             },
             {
-               "long_name" : "United States",
-               "short_name" : "US",
+               "long_name" : "Australia",
+               "short_name" : "AU",
                "types" : [ "country", "political" ]
             }
          ],
-         "formatted_address" : "New York, NY, USA",
+         "formatted_address" : "Brisbane QLD, Australia",
          "geometry" : {
             "bounds" : {
                "northeast" : {
-                  "lat" : 40.9175771,
-                  "lng" : -73.70027209999999
-               },
-               "southwest" : {
-                  "lat" : 40.4773991,
-                  "lng" : -74.25908989999999
+                  "lat" : -26.9968449,
+                  "lng" : 153.3178702
+               },
+               "southwest" : {
+                  "lat" : -27.7674409,
+                  "lng" : 152.6685227
                }
             },
             "location" : {
-               "lat" : 40.7127753,
-               "lng" : -74.0059728
+               "lat" : -27.4697707,
+               "lng" : 153.0251235
             },
             "location_type" : "APPROXIMATE",
             "viewport" : {
                "northeast" : {
-                  "lat" : 40.9175771,
-                  "lng" : -73.70027209999999
-               },
-               "southwest" : {
-                  "lat" : 40.4773991,
-                  "lng" : -74.25908989999999
+                  "lat" : -26.9968449,
+                  "lng" : 153.3178702
+               },
+               "southwest" : {
+                  "lat" : -27.7674409,
+                  "lng" : 152.6685227
                }
             }
          },
-         "place_id" : "ChIJOwg_06VPwokRYv534QaPC8g",
-         "types" : [ "locality", "political" ]
+         "place_id" : "ChIJM9KTrJpXkWsRQK_e81qjAgQ",
+         "types" : [ "colloquial_area", "locality", "political" ]
       }
    ],
    "status" : "OK"
@@ -481,61 +548,51 @@
       {
          "address_components" : [
             {
-               "long_name" : "London",
-               "short_name" : "London",
-               "types" : [ "locality", "political" ]
-            },
-            {
-               "long_name" : "London",
-               "short_name" : "London",
-               "types" : [ "postal_town" ]
-            },
-            {
-               "long_name" : "Greater London",
-               "short_name" : "Greater London",
-               "types" : [ "administrative_area_level_2", "political" ]
-            },
-            {
-               "long_name" : "England",
-               "short_name" : "England",
+               "long_name" : "Perth",
+               "short_name" : "Perth",
+               "types" : [ "colloquial_area", "locality", "political" ]
+            },
+            {
+               "long_name" : "Western Australia",
+               "short_name" : "WA",
                "types" : [ "administrative_area_level_1", "political" ]
             },
             {
-               "long_name" : "United Kingdom",
-               "short_name" : "GB",
+               "long_name" : "Australia",
+               "short_name" : "AU",
                "types" : [ "country", "political" ]
             }
          ],
-         "formatted_address" : "London, UK",
+         "formatted_address" : "Perth WA, Australia",
          "geometry" : {
             "bounds" : {
                "northeast" : {
-                  "lat" : 51.6723432,
-                  "lng" : 0.148271
-               },
-               "southwest" : {
-                  "lat" : 51.38494009999999,
-                  "lng" : -0.3514683
+                  "lat" : -31.6244855,
+                  "lng" : 116.239023
+               },
+               "southwest" : {
+                  "lat" : -32.4556424,
+                  "lng" : 115.6840483
                }
             },
             "location" : {
-               "lat" : 51.5073509,
-               "lng" : -0.1277583
+               "lat" : -31.9505269,
+               "lng" : 115.8604572
             },
             "location_type" : "APPROXIMATE",
             "viewport" : {
                "northeast" : {
-                  "lat" : 51.6723432,
-                  "lng" : 0.148271
-               },
-               "southwest" : {
-                  "lat" : 51.38494009999999,
-                  "lng" : -0.3514683
+                  "lat" : -31.6244855,
+                  "lng" : 116.239023
+               },
+               "southwest" : {
+                  "lat" : -32.4556424,
+                  "lng" : 115.6840483
                }
             }
          },
-         "place_id" : "ChIJdd4hrwug2EcRmSrV3Vo6llI",
-         "types" : [ "locality", "political" ]
+         "place_id" : "ChIJPXNH22yWMioR0FXfNbXwBAM",
+         "types" : [ "colloquial_area", "locality", "political" ]
       }
    ],
    "status" : "OK"
@@ -548,108 +605,46 @@
       {
          "address_components" : [
             {
-               "long_name" : "Dublin",
-               "short_name" : "Dublin",
-               "types" : [ "locality", "political" ]
-            },
-            {
-               "long_name" : "County Dublin",
-               "short_name" : "County Dublin",
-               "types" : [ "administrative_area_level_1", "political" ]
-            },
-            {
-               "long_name" : "Ireland",
-               "short_name" : "IE",
+               "long_name" : "Delhi",
+               "short_name" : "DL",
+               "types" : [ "administrative_area_level_1", "locality", "political" ]
+            },
+            {
+               "long_name" : "India",
+               "short_name" : "IN",
                "types" : [ "country", "political" ]
             }
          ],
-         "formatted_address" : "Dublin, Ireland",
+         "formatted_address" : "Delhi, India",
          "geometry" : {
             "bounds" : {
                "northeast" : {
-                  "lat" : 53.42521010000001,
-                  "lng" : -6.0439235
-               },
-               "southwest" : {
-                  "lat" : 53.22343009999999,
-                  "lng" : -6.4474847
+                  "lat" : 28.881338,
+                  "lng" : 77.34845780000001
+               },
+               "southwest" : {
+                  "lat" : 28.412593,
+                  "lng" : 76.83806899999999
                }
             },
             "location" : {
-               "lat" : 53.3498053,
-               "lng" : -6.2603097
+               "lat" : 28.7040592,
+               "lng" : 77.10249019999999
             },
             "location_type" : "APPROXIMATE",
             "viewport" : {
                "northeast" : {
-                  "lat" : 53.42521010000001,
-                  "lng" : -6.0439235
-               },
-               "southwest" : {
-                  "lat" : 53.22343009999999,
-                  "lng" : -6.4474847
+                  "lat" : 28.881338,
+                  "lng" : 77.34845780000001
+               },
+               "southwest" : {
+                  "lat" : 28.412593,
+                  "lng" : 76.83806899999999
                }
             }
          },
-         "place_id" : "ChIJL6wn6oAOZ0gRoHExl6nHAAo",
-         "types" : [ "locality", "political" ]
-      }
-   ],
-   "status" : "OK"
-}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-   "results" : [
-      {
-         "address_components" : [
-            {
-               "long_name" : "Beijing",
-               "short_name" : "Beijing",
-               "types" : [ "locality", "political" ]
-            },
-            {
-               "long_name" : "Beijing",
-               "short_name" : "Beijing",
-               "types" : [ "administrative_area_level_1", "political" ]
-            },
-            {
-               "long_name" : "China",
-               "short_name" : "CN",
-               "types" : [ "country", "political" ]
-            }
-         ],
-         "formatted_address" : "Beijing, China",
-         "geometry" : {
-            "bounds" : {
-               "northeast" : {
-                  "lat" : 41.0608157,
-                  "lng" : 117.514625
-               },
-               "southwest" : {
-                  "lat" : 39.442758,
-                  "lng" : 115.4234112
-               }
-            },
-            "location" : {
-               "lat" : 39.90419989999999,
-               "lng" : 116.4073963
-            },
-            "location_type" : "APPROXIMATE",
-            "viewport" : {
-               "northeast" : {
-                  "lat" : 40.2164962,
-                  "lng" : 116.7829835
-               },
-               "southwest" : {
-                  "lat" : 39.6612714,
-                  "lng" : 116.0119343
-               }
-            }
-         },
-         "place_id" : "ChIJuSwU55ZS8DURiqkPryBWYrk",
-         "types" : [ "locality", "political" ]
+         "place_id" : "ChIJLbZ-NFv9DDkRQJY4FbcFcgM",
+         "types" : [ "administrative_area_level_1", "locality", "political" ]
       }
    ],
    "status" : "OK"
@@ -989,13 +984,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1003,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1017,7 +1014,7 @@
         <v>200.0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1028,89 +1025,89 @@
         <v>200.0</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>200.0</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
         <v>200.0</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="n">
         <v>200.0</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
         <v>200.0</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" t="n">
         <v>200.0</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="n">
         <v>200.0</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" t="n">
         <v>200.0</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="n">
         <v>200.0</v>
